--- a/Test.xlsx
+++ b/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cosmowinds365-my.sharepoint.com/personal/a_tanaka_cosmowinds_jp/Documents/研修/sousuTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu\Documents\git01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4D066CA252ABDACC1048A18117E9BC73EEDF48" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75E356AC-187D-4B77-909F-61DCC8658D44}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD0BE6-301D-44CE-9968-FF78556A45DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tanaka" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>banana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +54,46 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +101,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -367,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63396E3-C9D9-4A65-8264-6E48D340D3BA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
@@ -379,14 +436,215 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DCCA9D-E5EE-422A-A066-3974C47D5774}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="27.75">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2" ph="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="27.75">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2" ph="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cosmowinds365-my.sharepoint.com/personal/a_tanaka_cosmowinds_jp/Documents/研修/sousuTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4D066CA252ABDACC1048A18117E9BC73EEDF48" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75E356AC-187D-4B77-909F-61DCC8658D44}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_AD4D066CA252ABDACC1048A18117E9BC73EEDF48" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{633EC34A-3402-4EF1-B956-36F74E231526}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tanaka" sheetId="1" r:id="rId1"/>
@@ -351,11 +351,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18" customHeight="1"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -367,7 +367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63396E3-C9D9-4A65-8264-6E48D340D3BA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
